--- a/excelTAB/sptmb.xlsx
+++ b/excelTAB/sptmb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koogich/RPA_BOT/excelTAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koogich/RPABOT_beta_1.2 — копия/excelTAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542CEC75-ECFE-F24E-ABB2-4D9AB3D5700F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F4F87-AC83-6E44-B4B3-B73B6E997F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="32680" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="32680" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="84">
   <si>
     <r>
       <rPr>
@@ -1241,6 +1241,9 @@
   <si>
     <t>Общая физическая подготовка (п)
 доцент Джалилов С.А. (открытая спорт. площадка)</t>
+  </si>
+  <si>
+    <t>День самостоятельной работы студента</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1526,6 +1529,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="23"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
@@ -1553,6 +1583,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1562,71 +1631,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="23"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1984,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="143" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="143" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1999,54 +2005,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="29.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2056,11 +2062,11 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
@@ -2076,175 +2082,175 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="50" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="44" t="s">
         <v>72</v>
       </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="39"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="41"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
@@ -2253,7 +2259,7 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="42"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="12" t="s">
         <v>18</v>
       </c>
@@ -2262,56 +2268,56 @@
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="45"/>
-      <c r="E27" s="39"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="12" t="s">
         <v>18</v>
       </c>
@@ -2320,53 +2326,53 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="12" t="s">
         <v>17</v>
       </c>
@@ -2375,7 +2381,7 @@
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="12" t="s">
         <v>18</v>
       </c>
@@ -2384,49 +2390,49 @@
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="35" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="27"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="27"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="27"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="27"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="12" t="s">
         <v>17</v>
       </c>
@@ -2435,7 +2441,7 @@
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
@@ -2444,53 +2450,53 @@
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="44" t="s">
         <v>75</v>
       </c>
       <c r="D45" s="45"/>
-      <c r="E45" s="39"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="27"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="27"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="12" t="s">
         <v>17</v>
       </c>
@@ -2499,7 +2505,7 @@
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="12" t="s">
         <v>18</v>
       </c>
@@ -2508,47 +2514,47 @@
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="45"/>
-      <c r="E51" s="39"/>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="27"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="27"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="27"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
     </row>
     <row r="55" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A55" s="27"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="12" t="s">
         <v>17</v>
       </c>
@@ -2557,7 +2563,7 @@
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="12" t="s">
         <v>18</v>
       </c>
@@ -2566,7 +2572,7 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="53" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -2575,11 +2581,13 @@
       <c r="C57" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="60" t="s">
+        <v>83</v>
+      </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A58" s="41"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="12" t="s">
         <v>14</v>
       </c>
@@ -2590,7 +2598,7 @@
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A59" s="41"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
@@ -2601,7 +2609,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A60" s="41"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
@@ -2612,7 +2620,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="41"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="12" t="s">
         <v>17</v>
       </c>
@@ -2621,7 +2629,7 @@
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="42"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="12" t="s">
         <v>18</v>
       </c>
@@ -2630,53 +2638,53 @@
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="31"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="27"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="31"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="27"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="31"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="27"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="27"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
@@ -2685,7 +2693,7 @@
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="12" t="s">
         <v>18</v>
       </c>
@@ -2694,7 +2702,7 @@
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -2705,7 +2713,7 @@
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A70" s="27"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="12" t="s">
         <v>14</v>
       </c>
@@ -2720,7 +2728,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A71" s="27"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="12" t="s">
         <v>15</v>
       </c>
@@ -2735,7 +2743,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A72" s="27"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="12" t="s">
         <v>16</v>
       </c>
@@ -2750,7 +2758,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A73" s="27"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="12" t="s">
         <v>17</v>
       </c>
@@ -2765,7 +2773,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="12" t="s">
         <v>18</v>
       </c>
@@ -2774,53 +2782,53 @@
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="31"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A76" s="27"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="31"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="27"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="31"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="27"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="27"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="12" t="s">
         <v>17</v>
       </c>
@@ -2829,7 +2837,7 @@
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="28"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="12" t="s">
         <v>18</v>
       </c>
@@ -2838,7 +2846,7 @@
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B81" s="12" t="s">
@@ -2851,7 +2859,7 @@
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A82" s="27"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="12" t="s">
         <v>14</v>
       </c>
@@ -2862,7 +2870,7 @@
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A83" s="27"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
@@ -2875,7 +2883,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A84" s="27"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
@@ -2888,7 +2896,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="27"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="12" t="s">
         <v>17</v>
       </c>
@@ -2897,7 +2905,7 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="28"/>
+      <c r="A86" s="37"/>
       <c r="B86" s="12" t="s">
         <v>18</v>
       </c>
@@ -2906,7 +2914,7 @@
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B87" s="12" t="s">
@@ -2917,7 +2925,7 @@
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A88" s="27"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="12" t="s">
         <v>14</v>
       </c>
@@ -2930,7 +2938,7 @@
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A89" s="27"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="12" t="s">
         <v>15</v>
       </c>
@@ -2943,7 +2951,7 @@
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A90" s="27"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="12" t="s">
         <v>16</v>
       </c>
@@ -2956,7 +2964,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A91" s="27"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="12" t="s">
         <v>17</v>
       </c>
@@ -2969,7 +2977,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="28"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="12" t="s">
         <v>18</v>
       </c>
@@ -2978,13 +2986,13 @@
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="53" t="s">
         <v>51</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="26" t="s">
         <v>82</v>
       </c>
       <c r="D93" s="18"/>
@@ -2993,7 +3001,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="41"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="12" t="s">
         <v>14</v>
       </c>
@@ -3006,7 +3014,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="41"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="13" t="s">
         <v>15</v>
       </c>
@@ -3017,7 +3025,7 @@
       <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="41"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="12" t="s">
         <v>16</v>
       </c>
@@ -3028,7 +3036,7 @@
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="41"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="12" t="s">
         <v>17</v>
       </c>
@@ -3037,7 +3045,7 @@
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="42"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="12" t="s">
         <v>18</v>
       </c>
@@ -3046,7 +3054,7 @@
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="35" t="s">
         <v>81</v>
       </c>
       <c r="B99" s="12" t="s">
@@ -3059,7 +3067,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="27"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="12" t="s">
         <v>14</v>
       </c>
@@ -3074,7 +3082,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="27"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="12" t="s">
         <v>15</v>
       </c>
@@ -3087,7 +3095,7 @@
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="27"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="12" t="s">
         <v>16</v>
       </c>
@@ -3100,7 +3108,7 @@
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="27"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="12" t="s">
         <v>17</v>
       </c>
@@ -3113,7 +3121,7 @@
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="28"/>
+      <c r="A104" s="37"/>
       <c r="B104" s="12" t="s">
         <v>18</v>
       </c>
@@ -3122,7 +3130,7 @@
       <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="57" t="s">
         <v>79</v>
       </c>
       <c r="B105" s="12" t="s">
@@ -3137,7 +3145,7 @@
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="36"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="12" t="s">
         <v>14</v>
       </c>
@@ -3152,7 +3160,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="36"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="12" t="s">
         <v>15</v>
       </c>
@@ -3167,7 +3175,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A108" s="36"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="12" t="s">
         <v>16</v>
       </c>
@@ -3182,7 +3190,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A109" s="36"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="12" t="s">
         <v>17</v>
       </c>
@@ -3193,7 +3201,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A110" s="37"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="12" t="s">
         <v>18</v>
       </c>
@@ -3202,62 +3210,62 @@
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="35" t="s">
         <v>80</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D111" s="30"/>
-      <c r="E111" s="31"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="40"/>
     </row>
     <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="27"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="C112" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="40"/>
     </row>
     <row r="113" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="27"/>
+      <c r="A113" s="36"/>
       <c r="B113" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C113" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D113" s="30"/>
-      <c r="E113" s="31"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="40"/>
     </row>
     <row r="114" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="27"/>
+      <c r="A114" s="36"/>
       <c r="B114" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="31"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="40"/>
     </row>
     <row r="115" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A115" s="27"/>
+      <c r="A115" s="36"/>
       <c r="B115" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="34"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="43"/>
     </row>
     <row r="116" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="28"/>
+      <c r="A116" s="37"/>
       <c r="B116" s="12" t="s">
         <v>18</v>
       </c>
@@ -3266,22 +3274,22 @@
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="38" t="s">
+      <c r="C117" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D117" s="39"/>
+      <c r="D117" s="46"/>
       <c r="E117" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A118" s="27"/>
+      <c r="A118" s="36"/>
       <c r="B118" s="12" t="s">
         <v>14</v>
       </c>
@@ -3292,7 +3300,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="27"/>
+      <c r="A119" s="36"/>
       <c r="B119" s="12" t="s">
         <v>15</v>
       </c>
@@ -3301,7 +3309,7 @@
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A120" s="27"/>
+      <c r="A120" s="36"/>
       <c r="B120" s="12" t="s">
         <v>16</v>
       </c>
@@ -3310,7 +3318,7 @@
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A121" s="27"/>
+      <c r="A121" s="36"/>
       <c r="B121" s="12" t="s">
         <v>17</v>
       </c>
@@ -3319,7 +3327,7 @@
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A122" s="28"/>
+      <c r="A122" s="37"/>
       <c r="B122" s="12" t="s">
         <v>18</v>
       </c>
@@ -3328,7 +3336,7 @@
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="35" t="s">
         <v>60</v>
       </c>
       <c r="B123" s="12" t="s">
@@ -3343,7 +3351,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A124" s="27"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="12" t="s">
         <v>14</v>
       </c>
@@ -3354,7 +3362,7 @@
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A125" s="27"/>
+      <c r="A125" s="36"/>
       <c r="B125" s="12" t="s">
         <v>15</v>
       </c>
@@ -3365,7 +3373,7 @@
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A126" s="27"/>
+      <c r="A126" s="36"/>
       <c r="B126" s="12" t="s">
         <v>16</v>
       </c>
@@ -3376,7 +3384,7 @@
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A127" s="27"/>
+      <c r="A127" s="36"/>
       <c r="B127" s="12" t="s">
         <v>17</v>
       </c>
@@ -3385,7 +3393,7 @@
       <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A128" s="28"/>
+      <c r="A128" s="37"/>
       <c r="B128" s="12" t="s">
         <v>18</v>
       </c>
@@ -3394,7 +3402,7 @@
       <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="53" t="s">
         <v>61</v>
       </c>
       <c r="B129" s="12" t="s">
@@ -3409,7 +3417,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A130" s="41"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="12" t="s">
         <v>14</v>
       </c>
@@ -3422,7 +3430,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A131" s="41"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="12" t="s">
         <v>15</v>
       </c>
@@ -3435,7 +3443,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A132" s="41"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="12" t="s">
         <v>16</v>
       </c>
@@ -3448,7 +3456,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A133" s="41"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="12" t="s">
         <v>17</v>
       </c>
@@ -3457,7 +3465,7 @@
       <c r="E133" s="8"/>
     </row>
     <row r="134" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="42"/>
+      <c r="A134" s="55"/>
       <c r="B134" s="12" t="s">
         <v>18</v>
       </c>
@@ -3466,7 +3474,7 @@
       <c r="E134" s="8"/>
     </row>
     <row r="135" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A135" s="26" t="s">
+      <c r="A135" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B135" s="12" t="s">
@@ -3481,7 +3489,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A136" s="27"/>
+      <c r="A136" s="36"/>
       <c r="B136" s="12" t="s">
         <v>14</v>
       </c>
@@ -3494,7 +3502,7 @@
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A137" s="27"/>
+      <c r="A137" s="36"/>
       <c r="B137" s="12" t="s">
         <v>15</v>
       </c>
@@ -3507,7 +3515,7 @@
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A138" s="27"/>
+      <c r="A138" s="36"/>
       <c r="B138" s="12" t="s">
         <v>16</v>
       </c>
@@ -3520,7 +3528,7 @@
       <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A139" s="27"/>
+      <c r="A139" s="36"/>
       <c r="B139" s="12" t="s">
         <v>17</v>
       </c>
@@ -3531,7 +3539,7 @@
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A140" s="28"/>
+      <c r="A140" s="37"/>
       <c r="B140" s="12" t="s">
         <v>18</v>
       </c>
@@ -3540,7 +3548,7 @@
       <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A141" s="26" t="s">
+      <c r="A141" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B141" s="12" t="s">
@@ -3553,7 +3561,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A142" s="27"/>
+      <c r="A142" s="36"/>
       <c r="B142" s="12" t="s">
         <v>14</v>
       </c>
@@ -3566,7 +3574,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A143" s="27"/>
+      <c r="A143" s="36"/>
       <c r="B143" s="12" t="s">
         <v>15</v>
       </c>
@@ -3579,7 +3587,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A144" s="27"/>
+      <c r="A144" s="36"/>
       <c r="B144" s="12" t="s">
         <v>16</v>
       </c>
@@ -3592,7 +3600,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A145" s="27"/>
+      <c r="A145" s="36"/>
       <c r="B145" s="12" t="s">
         <v>17</v>
       </c>
@@ -3603,7 +3611,7 @@
       <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A146" s="28"/>
+      <c r="A146" s="37"/>
       <c r="B146" s="12" t="s">
         <v>18</v>
       </c>
@@ -3612,53 +3620,53 @@
       <c r="E146" s="8"/>
     </row>
     <row r="147" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A147" s="26" t="s">
+      <c r="A147" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C147" s="29" t="s">
+      <c r="C147" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="31"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="40"/>
     </row>
     <row r="148" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A148" s="27"/>
+      <c r="A148" s="36"/>
       <c r="B148" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="29" t="s">
+      <c r="C148" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="31"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="40"/>
     </row>
     <row r="149" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A149" s="27"/>
+      <c r="A149" s="36"/>
       <c r="B149" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="29" t="s">
+      <c r="C149" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D149" s="30"/>
-      <c r="E149" s="31"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="40"/>
     </row>
     <row r="150" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A150" s="27"/>
+      <c r="A150" s="36"/>
       <c r="B150" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C150" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D150" s="30"/>
-      <c r="E150" s="31"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="40"/>
     </row>
     <row r="151" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A151" s="27"/>
+      <c r="A151" s="36"/>
       <c r="B151" s="12" t="s">
         <v>17</v>
       </c>
@@ -3667,7 +3675,7 @@
       <c r="E151" s="8"/>
     </row>
     <row r="152" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A152" s="28"/>
+      <c r="A152" s="37"/>
       <c r="B152" s="12" t="s">
         <v>18</v>
       </c>
@@ -3676,7 +3684,7 @@
       <c r="E152" s="8"/>
     </row>
     <row r="153" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A153" s="26" t="s">
+      <c r="A153" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B153" s="12" t="s">
@@ -3689,7 +3697,7 @@
       <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A154" s="27"/>
+      <c r="A154" s="36"/>
       <c r="B154" s="12" t="s">
         <v>14</v>
       </c>
@@ -3700,7 +3708,7 @@
       <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A155" s="27"/>
+      <c r="A155" s="36"/>
       <c r="B155" s="12" t="s">
         <v>15</v>
       </c>
@@ -3713,7 +3721,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A156" s="27"/>
+      <c r="A156" s="36"/>
       <c r="B156" s="12" t="s">
         <v>16</v>
       </c>
@@ -3726,7 +3734,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A157" s="27"/>
+      <c r="A157" s="36"/>
       <c r="B157" s="12" t="s">
         <v>17</v>
       </c>
@@ -3735,7 +3743,7 @@
       <c r="E157" s="8"/>
     </row>
     <row r="158" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A158" s="28"/>
+      <c r="A158" s="37"/>
       <c r="B158" s="12" t="s">
         <v>18</v>
       </c>
@@ -3744,53 +3752,53 @@
       <c r="E158" s="8"/>
     </row>
     <row r="159" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A159" s="26" t="s">
+      <c r="A159" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="29" t="s">
+      <c r="C159" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="31"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="40"/>
     </row>
     <row r="160" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A160" s="27"/>
+      <c r="A160" s="36"/>
       <c r="B160" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="29" t="s">
+      <c r="C160" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D160" s="30"/>
-      <c r="E160" s="31"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="40"/>
     </row>
     <row r="161" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A161" s="27"/>
+      <c r="A161" s="36"/>
       <c r="B161" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="29" t="s">
+      <c r="C161" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="31"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="40"/>
     </row>
     <row r="162" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A162" s="27"/>
+      <c r="A162" s="36"/>
       <c r="B162" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C162" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="30"/>
-      <c r="E162" s="31"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="40"/>
     </row>
     <row r="163" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A163" s="27"/>
+      <c r="A163" s="36"/>
       <c r="B163" s="12" t="s">
         <v>17</v>
       </c>
@@ -3799,7 +3807,7 @@
       <c r="E163" s="8"/>
     </row>
     <row r="164" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A164" s="28"/>
+      <c r="A164" s="37"/>
       <c r="B164" s="12" t="s">
         <v>18</v>
       </c>
@@ -3808,43 +3816,63 @@
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165" s="43"/>
-      <c r="B165" s="43"/>
-      <c r="C165" s="43"/>
-      <c r="D165" s="43"/>
-      <c r="E165" s="43"/>
-      <c r="F165" s="43"/>
+      <c r="A165" s="56"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="56"/>
+      <c r="D165" s="56"/>
+      <c r="E165" s="56"/>
+      <c r="F165" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A165:F165"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A69:A74"/>
     <mergeCell ref="A81:A86"/>
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="C18:E18"/>
@@ -3861,54 +3889,34 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A165:F165"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
